--- a/tournament/matches/Mumbai_India_vs_RoyalChallengers_Bangladesh.xlsx
+++ b/tournament/matches/Mumbai_India_vs_RoyalChallengers_Bangladesh.xlsx
@@ -523,23 +523,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KL Rahul</t>
+          <t>Tamim Iqbal</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mustafizur Rahman</t>
+          <t xml:space="preserve"> Kuldeep Yadav</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -547,23 +547,23 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Tamim Iqbal</t>
+          <t>KL Rahul</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kuldeep Yadav</t>
+          <t xml:space="preserve"> Mustafizur Rahman</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -573,23 +573,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rohit Sharma</t>
+          <t>Liton Das</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shoriful Islam</t>
+          <t xml:space="preserve"> Jasprit Bumrah</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -597,23 +597,23 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Liton Das</t>
+          <t>Rohit Sharma</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kuldeep Yadav</t>
+          <t xml:space="preserve"> Taskin Ahmed</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -623,7 +623,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Virat Kohli(C)</t>
+          <t>Shakib Al Hasan</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -634,12 +634,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shoriful Islam</t>
+          <t xml:space="preserve"> Kuldeep Yadav</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -647,23 +647,23 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Shakib Al Hasan</t>
+          <t>Virat Kohli(C)</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>* NOT OUT</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Shoriful Islam</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -673,23 +673,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Suryakumar Yadav</t>
+          <t>Mushfiqur Rahim</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taskin Ahmed</t>
+          <t xml:space="preserve"> Mohommad Shami</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -697,23 +697,23 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Mushfiqur Rahim</t>
+          <t>Suryakumar Yadav</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jasprit Bumrah</t>
+          <t xml:space="preserve"> Shoriful Islam</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -723,23 +723,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rishabh Pant</t>
+          <t>Mahmudulla(C)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shamim Hossain</t>
+          <t xml:space="preserve"> Bhuvneshwar Kumar</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -747,23 +747,23 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Mahmudulla(C)</t>
+          <t>Rishabh Pant</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mohommad Shami</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -773,23 +773,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ravindra Jadeja</t>
+          <t>Afif Hossain</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taskin Ahmed</t>
+          <t xml:space="preserve"> Hardik Pandya</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -797,18 +797,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Afif Hossain</t>
+          <t>Ravindra Jadeja</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>* NOT OUT</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -823,14 +823,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hardik Pandya</t>
+          <t>Shamim Hossain</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mustafizur Rahman</t>
+          <t xml:space="preserve"> Hardik Pandya</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -847,7 +847,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Shamim Hossain</t>
+          <t>Hardik Pandya</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -873,11 +873,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bhuvneshwar Kumar</t>
+          <t>Mahedi Hasan</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -889,7 +889,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shamim Hossain</t>
+          <t xml:space="preserve"> Kuldeep Yadav</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -897,7 +897,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Mahedi Hasan</t>
+          <t>Bhuvneshwar Kumar</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -923,23 +923,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mohommad Shami</t>
+          <t>Taskin Ahmed</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mustafizur Rahman</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -947,7 +947,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Taskin Ahmed</t>
+          <t>Mohommad Shami</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -973,23 +973,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jasprit Bumrah</t>
+          <t>Mustafizur Rahman</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Kuldeep Yadav</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -997,7 +997,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Mustafizur Rahman</t>
+          <t>Jasprit Bumrah</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -1023,23 +1023,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kuldeep Yadav</t>
+          <t>Shoriful Islam</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taskin Ahmed</t>
+          <t xml:space="preserve"> Mohommad Shami</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Shoriful Islam</t>
+          <t>Kuldeep Yadav</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1114,7 +1114,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
@@ -1128,18 +1128,18 @@
         <v>43</v>
       </c>
       <c r="J16" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -1197,7 +1197,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mahedi Hasan</t>
+          <t>Bhuvneshwar Kumar</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1206,17 +1206,17 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jasprit Bumrah</t>
+          <t>Taskin Ahmed</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1225,19 +1225,19 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Shamim Hossain</t>
+          <t>Hardik Pandya</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1246,17 +1246,17 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Mohommad Shami</t>
+          <t>Mahedi Hasan</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1265,19 +1265,19 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Shoriful Islam</t>
+          <t>Kuldeep Yadav</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1286,17 +1286,17 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Bhuvneshwar Kumar</t>
+          <t>Shamim Hossain</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1305,19 +1305,19 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mustafizur Rahman</t>
+          <t>Jasprit Bumrah</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1326,38 +1326,38 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Hardik Pandya</t>
+          <t>Shoriful Islam</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Taskin Ahmed</t>
+          <t>Mohommad Shami</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1366,32 +1366,32 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>10.91</v>
+        <v>8.18</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Kuldeep Yadav</t>
+          <t>Mustafizur Rahman</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>20.83</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
